--- a/tests/data/desired/wrongcollationdumpreport.xlsx
+++ b/tests/data/desired/wrongcollationdumpreport.xlsx
@@ -20,13 +20,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>AGE</t>
+    <t>FIRST_NAME (Source3)</t>
+  </si>
+  <si>
+    <t>LAST_NAME (Source3)</t>
+  </si>
+  <si>
+    <t>AGE (Source3)</t>
   </si>
   <si>
     <t>abcd</t>
@@ -190,12 +190,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/tests/data/desired/wrongcollationdumpreport.xlsx
+++ b/tests/data/desired/wrongcollationdumpreport.xlsx
@@ -9,13 +9,16 @@
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$A$1:$H$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+  <si>
+    <t># of Diffs</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -189,13 +192,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -212,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s" s="1">
         <v>2</v>
@@ -220,10 +224,13 @@
       <c r="G1" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="H1" t="s" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" t="n">
+        <v>0.0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -231,22 +238,25 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
         <v>11.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3" t="n">
+        <v>0.0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -254,22 +264,25 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
         <v>12.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" t="n">
+        <v>0.0</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -277,22 +290,25 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
         <v>13.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5" t="n">
+        <v>0.0</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -300,22 +316,25 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
         <v>19.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="A6" t="n">
+        <v>0.0</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -323,22 +342,25 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
         <v>14.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" t="n">
+        <v>0.0</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -346,22 +368,25 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
         <v>15.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" t="n">
+        <v>0.0</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -369,22 +394,25 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
         <v>16.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>25</v>
+      <c r="A9" t="n">
+        <v>0.0</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -392,22 +420,25 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n">
         <v>17.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
+      <c r="A10" t="n">
+        <v>0.0</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -415,16 +446,19 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="n">
         <v>18.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -442,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s" s="1">
         <v>2</v>
@@ -450,10 +484,13 @@
       <c r="G11" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="H11" t="s" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="A12" t="n">
+        <v>0.0</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -461,22 +498,25 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
         <v>11.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13" t="n">
+        <v>0.0</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -484,22 +524,25 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
         <v>12.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="A14" t="n">
+        <v>0.0</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -507,22 +550,25 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
         <v>13.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>0.0</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -530,22 +576,25 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
         <v>19.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="A16" t="n">
+        <v>0.0</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -553,22 +602,25 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="n">
         <v>14.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" t="n">
+        <v>0.0</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -576,22 +628,25 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="n">
         <v>15.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
+      <c r="A18" t="n">
+        <v>0.0</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -599,22 +654,25 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
         <v>16.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19" t="n">
+        <v>0.0</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -622,22 +680,25 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
         <v>17.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
+      <c r="A20" t="n">
+        <v>0.0</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -645,21 +706,24 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="n">
         <v>18.0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="n">
         <v>18.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G20"/>
+  <autoFilter ref="A1:H20"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/wrongcollationdumpreport.xlsx
+++ b/tests/data/desired/wrongcollationdumpreport.xlsx
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -131,10 +131,15 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,26 +147,13 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill>
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,9 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -463,28 +456,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="1">
+      <c r="A11" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B11" t="s" s="1">
+      <c r="B11" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C11" t="s" s="1">
+      <c r="C11" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D11" t="s" s="1">
+      <c r="D11" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E11" t="s" s="1">
+      <c r="E11" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F11" t="s" s="1">
+      <c r="F11" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="G11" t="s" s="1">
+      <c r="G11" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="H11" t="s" s="1">
+      <c r="H11" t="s" s="2">
         <v>4</v>
       </c>
     </row>
